--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56738.18100018627</v>
+        <v>11277738.02633872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56738.18100018627</v>
+        <v>11277738.02633872</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9347585188274</v>
+        <v>44636.71790575716</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.9347585188274</v>
+        <v>44636.71790575716</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113724816.923398</v>
+        <v>46919883.28723632</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10425.74712997452</v>
+        <v>1197387.519763581</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19038.59443558499</v>
+        <v>2110435.874004712</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27650.91897608557</v>
+        <v>3023484.228245844</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36288.75501652489</v>
+        <v>3936541.847717759</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44926.39220247359</v>
+        <v>4849590.201958891</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53563.81021000463</v>
+        <v>5762638.556200022</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62201.33966418872</v>
+        <v>6675686.91044115</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70839.08829679048</v>
+        <v>7588735.264682277</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79476.72548273914</v>
+        <v>8501783.618923405</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88114.36266868784</v>
+        <v>9414831.973164532</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96751.99985463651</v>
+        <v>10327880.32740567</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105389.6370405852</v>
+        <v>11240928.68164681</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114027.2742265338</v>
+        <v>12153977.03588794</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122676.2300184908</v>
+        <v>13058538.31924693</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131344.3043022499</v>
+        <v>13965114.34939173</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>388</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
